--- a/data_input/corp/เเบบฟอร์มเก็บข้อมูล CRR ปี 2565-Corp.xlsx
+++ b/data_input/corp/เเบบฟอร์มเก็บข้อมูล CRR ปี 2565-Corp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\corp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\corp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83F0A9-61E1-4D2E-AF34-F2BB1CF9C15C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9828C47-5243-44B1-AACC-61D2C4604E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="5" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="S Commerce" sheetId="13" r:id="rId12"/>
     <sheet name=" S industries" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="258">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1107,7 +1104,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1145,7 +1142,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1183,7 +1180,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -1883,7 +1880,7 @@
   <dimension ref="A1:BN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2072,7 +2069,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2128,7 +2125,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2181,7 +2178,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2225,7 +2222,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5">
         <v>750751453</v>
@@ -2234,7 +2231,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -2243,7 +2240,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5">
         <v>243173</v>
@@ -2336,13 +2333,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2380,7 +2377,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2397,7 +2394,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7">
         <v>750250182</v>
@@ -2406,7 +2403,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -2415,17 +2412,17 @@
         <v>44826</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9">
         <v>750766732</v>
@@ -2434,7 +2431,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -2443,7 +2440,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="5">
         <v>44841</v>
@@ -2536,29 +2533,29 @@
         <v>141</v>
       </c>
       <c r="AL9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11">
-        <v>750910654</v>
+        <v>750765821</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -2567,7 +2564,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" s="5">
         <v>44784</v>
@@ -2660,80 +2657,80 @@
         <v>141</v>
       </c>
       <c r="AL11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2804,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6B51E-319C-4136-AB64-47F7F72E9146}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AX1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2958,7 +2955,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3008,7 +3005,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3055,7 +3052,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3096,7 +3093,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3128,7 +3125,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3139,97 +3136,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3294,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E13A5BC-81A9-424F-8AF7-7859F2334B8B}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3353,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3389,43 +3386,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3447,13 +3444,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3468,31 +3465,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3510,13 +3507,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -3531,31 +3528,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -3570,13 +3567,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -3591,31 +3588,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -3627,10 +3624,10 @@
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -3645,31 +3642,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -3681,34 +3678,34 @@
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -3717,102 +3714,102 @@
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H7" s="5"/>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3890,7 @@
   <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3953,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3989,43 +3986,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4046,13 +4043,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4067,31 +4064,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -4109,13 +4106,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4130,31 +4127,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4170,13 +4167,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4191,31 +4188,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4229,10 +4226,10 @@
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4247,31 +4244,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4283,34 +4280,34 @@
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4319,22 +4316,22 @@
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H7" s="5"/>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
@@ -4342,97 +4339,97 @@
       <c r="B10" s="8"/>
       <c r="H10" s="5"/>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H11" s="5"/>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H12" s="5"/>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H13" s="5"/>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H14" s="5"/>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H15" s="5"/>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H18" s="5"/>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H19" s="5"/>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H20" s="5"/>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H21" s="5"/>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H22" s="5"/>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H23" s="5"/>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H24" s="5"/>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H25" s="5"/>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="8:40" x14ac:dyDescent="0.2">
@@ -4517,7 +4514,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4576,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4612,43 +4609,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4670,13 +4667,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4691,31 +4688,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -4735,13 +4732,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4756,31 +4753,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4795,13 +4792,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4816,31 +4813,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4852,10 +4849,10 @@
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4870,31 +4867,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4906,34 +4903,34 @@
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4942,111 +4939,111 @@
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H7" s="5"/>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H10" s="5"/>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H11" s="5"/>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H12" s="5"/>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="H13" s="5"/>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H14" s="5"/>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H15" s="5"/>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5314,7 +5311,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -5370,7 +5367,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -5423,7 +5420,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -5470,7 +5467,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -5508,7 +5505,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -5525,97 +5522,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5687,12 +5684,12 @@
   <dimension ref="A1:BN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
@@ -5875,7 +5872,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -5931,7 +5928,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -5984,7 +5981,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -6028,16 +6025,13 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5">
-        <v>750945880</v>
+        <v>234</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -6136,13 +6130,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -6180,7 +6174,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -6197,16 +6191,13 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7">
-        <v>750966001</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -6305,100 +6296,100 @@
         <v>141</v>
       </c>
       <c r="AL7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6461,7 @@
   <dimension ref="A1:BN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6657,7 +6648,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -6713,7 +6704,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -6766,7 +6757,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -6813,7 +6804,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -6851,7 +6842,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -6868,7 +6859,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7">
         <v>750765651</v>
@@ -6877,7 +6868,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -6886,7 +6877,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="5">
         <v>44565</v>
@@ -6979,20 +6970,20 @@
         <v>141</v>
       </c>
       <c r="AL7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>208</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9">
         <v>750930365</v>
@@ -7001,7 +6992,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -7010,7 +7001,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H9" s="5">
         <v>243187</v>
@@ -7103,20 +7094,20 @@
         <v>141</v>
       </c>
       <c r="AL9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11">
         <v>750894922</v>
@@ -7125,7 +7116,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
         <v>42</v>
@@ -7134,7 +7125,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H11" s="5">
         <v>44799</v>
@@ -7227,80 +7218,80 @@
         <v>137</v>
       </c>
       <c r="AL11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7372,7 +7363,7 @@
   <dimension ref="A1:BN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7562,7 +7553,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -7618,7 +7609,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -7672,7 +7663,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -7716,16 +7707,13 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5">
-        <v>750964352</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -7824,13 +7812,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -7869,7 +7857,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -7886,7 +7874,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7">
         <v>750118657</v>
@@ -7895,7 +7883,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -7904,7 +7892,7 @@
         <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H7" s="5">
         <v>44865</v>
@@ -7997,20 +7985,20 @@
         <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9">
         <v>750897863</v>
@@ -8019,7 +8007,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -8028,7 +8016,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H9" s="5">
         <v>44881</v>
@@ -8121,29 +8109,26 @@
         <v>141</v>
       </c>
       <c r="AL9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11">
-        <v>750965048</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -8242,29 +8227,26 @@
         <v>141</v>
       </c>
       <c r="AL11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13">
-        <v>750962896</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
         <v>42</v>
@@ -8363,20 +8345,20 @@
         <v>138</v>
       </c>
       <c r="AL13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B15">
         <v>750118657</v>
@@ -8385,7 +8367,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -8484,20 +8466,20 @@
         <v>140</v>
       </c>
       <c r="AL15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17">
         <v>610017233</v>
@@ -8506,7 +8488,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
@@ -8515,7 +8497,7 @@
         <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17" s="5">
         <v>44733</v>
@@ -8608,20 +8590,20 @@
         <v>141</v>
       </c>
       <c r="AL17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19">
         <v>750780026</v>
@@ -8630,7 +8612,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
         <v>42</v>
@@ -8639,7 +8621,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H19" s="5">
         <v>44528</v>
@@ -8732,40 +8714,40 @@
         <v>141</v>
       </c>
       <c r="AL19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8837,7 +8819,7 @@
   <dimension ref="A1:BN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9024,7 +9006,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9080,7 +9062,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9133,7 +9115,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9177,16 +9159,13 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5">
-        <v>750965424</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -9285,13 +9264,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9329,7 +9308,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9346,97 +9325,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9508,7 +9487,7 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9673,7 +9652,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -9720,7 +9699,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -9758,16 +9737,16 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4">
-        <v>750417713</v>
+        <v>750417720</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -9776,7 +9755,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="5">
         <v>44568</v>
@@ -9857,7 +9836,7 @@
         <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -9866,7 +9845,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -9904,7 +9883,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -9936,7 +9915,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -9950,97 +9929,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10103,7 +10082,7 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10268,7 +10247,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -10315,7 +10294,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -10359,7 +10338,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -10394,16 +10373,13 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5">
-        <v>750964236</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -10490,13 +10466,13 @@
         <v>138</v>
       </c>
       <c r="AH5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -10528,7 +10504,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -10542,97 +10518,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10695,7 +10671,7 @@
   <dimension ref="A1:BN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10871,7 +10847,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>530006666</v>
@@ -10880,7 +10856,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -10889,7 +10865,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5">
         <v>44812</v>
@@ -10982,7 +10958,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" t="s">
         <v>38</v>
@@ -10994,7 +10970,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11050,7 +11026,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11103,7 +11079,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11150,7 +11126,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11185,7 +11161,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11199,97 +11175,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
